--- a/xlsx/大陆会议_intext.xlsx
+++ b/xlsx/大陆会议_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>美國獨立宣言</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_大陆会议</t>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_大陆会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%81%E4%B8%89%E5%B7%9E</t>
@@ -41,37 +41,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>大不列顛王國</t>
+    <t>大不列颠王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%80%92%E8%8C%B6%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>波士頓倒茶事件</t>
+    <t>波士顿倒茶事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>英國國會</t>
+    <t>英国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%BA%E5%88%B6%E6%B3%95%E6%A1%88</t>
@@ -89,25 +89,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BA%9E%E7%95%B6%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·亞當斯</t>
+    <t>约翰·亚当斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
   </si>
   <si>
-    <t>喬治·華盛頓</t>
+    <t>乔治·华盛顿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Declaration_and_Resolves_of_the_First_Continental_Congress</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E9%AD%81%E5%8C%97%E5%85%8B%E7%9C%81</t>
   </si>
   <si>
-    <t>英屬魁北克省</t>
+    <t>英属魁北克省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%98%9F%E9%A0%93%E5%92%8C%E5%BA%B7%E7%A7%91%E5%BE%B7%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>列星頓和康科德戰役</t>
+    <t>列星顿和康科德战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Declaration_of_the_Causes_and_Necessity_of_Taking_Up_Arms</t>
@@ -149,37 +149,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96%E6%9E%9D%E8%AB%8B%E9%A1%98%E6%9B%B8</t>
   </si>
   <si>
-    <t>橄欖枝請願書</t>
+    <t>橄榄枝请愿书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%8F%8D%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維珍尼亞州</t>
+    <t>维珍尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>大陸軍</t>
+    <t>大陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>波士頓戰役</t>
+    <t>波士顿战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%99%E5%B9%A3</t>
   </si>
   <si>
-    <t>紙幣</t>
+    <t>纸币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E6%9D%A1%E4%BE%8B</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E6%A2%9D%E7%B4%84_(1783%E5%B9%B4)</t>
   </si>
   <si>
-    <t>巴黎條約 (1783年)</t>
+    <t>巴黎条约 (1783年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Land_Ordinance_of_1785</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF%E6%9C%83%E8%AD%B0_(1786%E5%B9%B4)</t>
   </si>
   <si>
-    <t>安納波利斯會議 (1786年)</t>
+    <t>安纳波利斯会议 (1786年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%8F%B8%E5%8F%9B%E4%B9%B1</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
